--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,133 +513,133 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.29662273677876477</v>
+        <v>0.29662273455660892</v>
       </c>
       <c r="C2">
-        <v>1.5315597828917422</v>
+        <v>1.5315597786380375</v>
       </c>
       <c r="D2">
-        <v>2.370933765622961</v>
+        <v>2.3709337576790492</v>
       </c>
       <c r="E2">
-        <v>3.6849603612295097</v>
+        <v>3.6849603592111229</v>
       </c>
       <c r="F2">
-        <v>1.2726361212921207</v>
+        <v>1.2726361189840942</v>
       </c>
       <c r="G2">
-        <v>0.34351235119145335</v>
+        <v>0.34351235185449824</v>
       </c>
       <c r="H2">
-        <v>1.0142608536382558</v>
+        <v>1.0142608498849424</v>
       </c>
       <c r="I2">
-        <v>1.6200566685867983</v>
+        <v>1.620056670001599</v>
       </c>
       <c r="J2">
-        <v>2.5779167907510634</v>
+        <v>2.5779167844895543</v>
       </c>
       <c r="K2">
-        <v>0.75845434120731814</v>
+        <v>0.75845434256289157</v>
       </c>
       <c r="L2">
-        <v>0.62525622905211342</v>
+        <v>0.62525622592049657</v>
       </c>
       <c r="N2">
-        <v>1.8870347480173058</v>
+        <v>1.8870347476330762</v>
       </c>
       <c r="O2">
-        <v>1.6738065470050176</v>
+        <v>1.6738065408604015</v>
       </c>
       <c r="P2">
-        <v>2.5244595936701053</v>
+        <v>2.5244595903535663</v>
       </c>
       <c r="Q2">
-        <v>8.507594402706509E-3</v>
+        <v>8.5075875732570378E-3</v>
       </c>
       <c r="S2">
-        <v>3.7579009525128306</v>
+        <v>3.7579009211397403</v>
       </c>
       <c r="V2">
-        <v>0.98028723142892826</v>
+        <v>0.98028722623156783</v>
       </c>
       <c r="W2">
-        <v>-1.5199277889440463</v>
+        <v>-1.519927792181794</v>
       </c>
       <c r="X2">
-        <v>6.9551315995546412E-2</v>
+        <v>6.9551310560222526E-2</v>
       </c>
       <c r="AA2">
-        <v>2.6755922032513006</v>
+        <v>2.6755921960254327</v>
       </c>
       <c r="AB2">
-        <v>2.527447508658093</v>
+        <v>2.5274474949413679</v>
       </c>
       <c r="AC2">
-        <v>-8.4147562540553555E-2</v>
+        <v>-8.4147560890596093E-2</v>
       </c>
       <c r="AD2">
-        <v>3.9685652846010799</v>
+        <v>3.9685652698051257</v>
       </c>
       <c r="AE2">
-        <v>1.1831072693689477</v>
+        <v>1.1831072690604096</v>
       </c>
       <c r="AF2">
-        <v>2.2384115191412062</v>
+        <v>2.2384115175648462</v>
       </c>
       <c r="AG2">
-        <v>2.0284693196225985</v>
+        <v>2.0284693137419496</v>
       </c>
       <c r="AH2">
-        <v>2.4433284336755432</v>
+        <v>2.4433284246807374</v>
       </c>
       <c r="AI2">
-        <v>3.3271372339962384</v>
+        <v>3.3271372181508885</v>
       </c>
       <c r="AJ2">
-        <v>1.7708359672277427</v>
+        <v>1.7708359666182876</v>
       </c>
       <c r="AK2">
-        <v>2.1599972025978857</v>
+        <v>2.1599971965590852</v>
       </c>
       <c r="AL2">
-        <v>-0.75857756209944527</v>
+        <v>-0.75857756792891284</v>
       </c>
       <c r="AM2">
-        <v>2.2283496328932091</v>
+        <v>2.2283496212090781</v>
       </c>
       <c r="AN2">
-        <v>2.5908310838028079</v>
+        <v>2.5908310753391204</v>
       </c>
       <c r="AO2">
-        <v>4.2672149188645303</v>
+        <v>4.2672149058119757</v>
       </c>
       <c r="AP2">
-        <v>2.7836605932477685</v>
+        <v>2.7836605885226868</v>
       </c>
       <c r="AQ2">
-        <v>-0.86568834446159459</v>
+        <v>-0.86568835424872725</v>
       </c>
       <c r="AR2">
-        <v>4.0527067920925841</v>
+        <v>4.052706793232197</v>
       </c>
       <c r="AS2">
-        <v>3.269086368440874</v>
+        <v>3.2690863572415663</v>
       </c>
       <c r="AU2">
-        <v>2.1728804534202522</v>
+        <v>2.1728804475683345</v>
       </c>
       <c r="AV2">
-        <v>0.53654127931207229</v>
+        <v>0.53654126577232808</v>
       </c>
       <c r="AW2">
-        <v>1.0780557509285236</v>
+        <v>1.0780557417674161</v>
       </c>
       <c r="AX2">
-        <v>3.3793850082209023</v>
+        <v>3.379385001498675</v>
       </c>
       <c r="AY2">
-        <v>4.4768343464716134</v>
+        <v>4.4768343351225006</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -652,121 +647,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0884115765995512</v>
+        <v>1.0884115699966748</v>
       </c>
       <c r="C3">
-        <v>0.97885949825754148</v>
+        <v>0.97885949015811324</v>
       </c>
       <c r="E3">
-        <v>2.9584773362551475</v>
+        <v>2.9584773327358729</v>
       </c>
       <c r="F3">
-        <v>1.0390327413452414</v>
+        <v>1.0390327369178058</v>
       </c>
       <c r="G3">
-        <v>2.3905357669692582</v>
+        <v>2.3905357625272714</v>
       </c>
       <c r="H3">
-        <v>-0.63941835282717918</v>
+        <v>-0.63941835491547483</v>
       </c>
       <c r="J3">
-        <v>3.1430657848577042</v>
+        <v>3.1430657724128106</v>
       </c>
       <c r="K3">
-        <v>4.8254070819298311</v>
+        <v>4.8254070782178848</v>
       </c>
       <c r="L3">
-        <v>2.7574427823073817</v>
+        <v>2.7574427734244971</v>
       </c>
       <c r="M3">
-        <v>-4.6473886273607393E-2</v>
+        <v>-4.6503841187340959E-2</v>
       </c>
       <c r="N3">
-        <v>1.5408923709113176</v>
+        <v>1.540892365117235</v>
       </c>
       <c r="P3">
-        <v>2.6920675624899792</v>
+        <v>2.6920675497946767</v>
       </c>
       <c r="Q3">
-        <v>0.98572374676671115</v>
+        <v>0.98572374147481767</v>
       </c>
       <c r="R3">
-        <v>0.11022867683889148</v>
+        <v>0.11022866506253015</v>
       </c>
       <c r="W3">
-        <v>0.10846795013486062</v>
+        <v>0.10846793998883876</v>
       </c>
       <c r="AA3">
-        <v>2.9148819963160557</v>
+        <v>2.9148819876379299</v>
       </c>
       <c r="AB3">
-        <v>2.5561784442021964</v>
+        <v>2.5561784357193162</v>
       </c>
       <c r="AC3">
-        <v>3.8495423726330107</v>
+        <v>3.8495423699594</v>
       </c>
       <c r="AD3">
-        <v>4.0450882312423744</v>
+        <v>4.0450882257165288</v>
       </c>
       <c r="AE3">
-        <v>2.5848838832166545</v>
+        <v>2.5848838809717116</v>
       </c>
       <c r="AF3">
-        <v>2.3505744257305428</v>
+        <v>2.3505744194357523</v>
       </c>
       <c r="AG3">
-        <v>1.0170190554479759</v>
+        <v>1.0170190475564882</v>
       </c>
       <c r="AH3">
-        <v>0.65634828204657469</v>
+        <v>0.65634827278967345</v>
       </c>
       <c r="AI3">
-        <v>7.922893338860626</v>
+        <v>7.9228933377300468</v>
       </c>
       <c r="AJ3">
-        <v>3.5673269097768876</v>
+        <v>3.5673269017148921</v>
       </c>
       <c r="AK3">
-        <v>2.4578554990592862</v>
+        <v>2.4578554932140033</v>
       </c>
       <c r="AL3">
-        <v>1.8544401051638677</v>
+        <v>1.8544400940577441</v>
       </c>
       <c r="AM3">
-        <v>1.9469526283850631</v>
+        <v>1.9469526140131026</v>
       </c>
       <c r="AN3">
-        <v>-2.0101411375208857</v>
+        <v>-2.0101411441196722</v>
       </c>
       <c r="AO3">
-        <v>3.9321977966773671</v>
+        <v>3.9321977901794551</v>
       </c>
       <c r="AP3">
-        <v>0.6404949194824523</v>
+        <v>0.64049491306849815</v>
       </c>
       <c r="AQ3">
-        <v>1.9353361412325105</v>
+        <v>1.9353361344127289</v>
       </c>
       <c r="AS3">
-        <v>2.70541226036823</v>
+        <v>2.7054122578463891</v>
       </c>
       <c r="AT3">
-        <v>2.6935110565513556</v>
+        <v>2.6935110470555328</v>
       </c>
       <c r="AU3">
-        <v>1.4272079786032921</v>
+        <v>1.4272079739952437</v>
       </c>
       <c r="AV3">
-        <v>0.56850383243144409</v>
+        <v>0.56850382598819282</v>
       </c>
       <c r="AW3">
-        <v>0.41159393304974767</v>
+        <v>0.41159392571628167</v>
       </c>
       <c r="AX3">
-        <v>2.1094734132230322</v>
+        <v>2.1094734044079444</v>
       </c>
       <c r="AY3">
-        <v>5.403788483430902</v>
+        <v>5.4037884723696354</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.29662273455660892</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5315597786380375</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.3709337576790492</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.6849603592111229</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.2726361189840942</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.34351235185449824</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.0142608498849424</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.620056670001599</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.5779167844895543</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.75845434256289157</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.62525622592049657</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.8870347476330762</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.6738065408604015</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.5244595903535663</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.5075875732570378E-3</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.7579009211397403</v>
+        <v>2.2115670792067914</v>
       </c>
       <c r="V2">
         <v>0.98028722623156783</v>
@@ -570,55 +465,55 @@
         <v>6.9551310560222526E-2</v>
       </c>
       <c r="AA2">
-        <v>2.6755921960254327</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.5274474949413679</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-8.4147560890596093E-2</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>3.9685652698051257</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.1831072690604096</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.2384115175648462</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.0284693137419496</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.4433284246807374</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.3271372181508885</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.7708359666182876</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.1599971965590852</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-0.75857756792891284</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.2283496212090781</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.5908310753391204</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>4.2672149058119757</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.7836605885226868</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.86568835424872725</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.052706793232197</v>
@@ -643,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>1.0884115699966748</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.97885949015811324</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2.9584773327358729</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0390327369178058</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.3905357625272714</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>-0.63941835491547483</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.1430657724128106</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.8254070782178848</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.7574427734244971</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-4.6503841187340959E-2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.540892365117235</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2.6920675497946767</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.98572374147481767</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.11022866506253015</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0.10846793998883876</v>
       </c>
       <c r="AA3">
-        <v>2.9148819876379299</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.5561784357193162</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.8495423699594</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4.0450882257165288</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.5848838809717116</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.3505744194357523</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.0170190475564882</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.65634827278967345</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>7.9228933377300468</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.5673269017148921</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.4578554932140033</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.8544400940577441</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.9469526140131026</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>-2.0101411441196722</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.9321977901794551</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.64049491306849815</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.9353361344127289</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>2.7054122578463891</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.29662273677876477</v>
-      </c>
-      <c r="C2">
-        <v>1.019353665161121</v>
-      </c>
-      <c r="D2">
-        <v>2.370933765622961</v>
-      </c>
       <c r="E2">
-        <v>3.6849603612295097</v>
+        <v>-0.86568835424872725</v>
       </c>
       <c r="F2">
         <v>1.2726361212921207</v>
@@ -651,14 +637,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1.0884115765995512</v>
-      </c>
       <c r="C3">
-        <v>0.97885949825754148</v>
+        <v>0.11022866506253015</v>
+      </c>
+      <c r="D3">
+        <v>-1.7914419616663402</v>
       </c>
       <c r="E3">
-        <v>2.9584773362551475</v>
+        <v>2.0033802731607646</v>
       </c>
       <c r="F3">
         <v>1.0390327413452414</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.29662273677876477</v>
-      </c>
-      <c r="C2">
-        <v>1.019353665161121</v>
+        <v>1.7052526527940211</v>
       </c>
       <c r="D2">
-        <v>2.370933765622961</v>
-      </c>
-      <c r="E2">
-        <v>3.6849603612295097</v>
+        <v>2.2283496212090781</v>
       </c>
       <c r="F2">
         <v>1.2726361212921207</v>
@@ -643,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.0884115765995512</v>
-      </c>
-      <c r="C3">
-        <v>0.97885949825754148</v>
+        <v>1.540892365117235</v>
+      </c>
+      <c r="D3">
+        <v>1.9469526140131026</v>
       </c>
       <c r="E3">
-        <v>4.2519849276918862</v>
+        <v>-1.7914419616663402</v>
       </c>
       <c r="F3">
         <v>1.0390327413452414</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_elong_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,118 +513,124 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.29662273455660892</v>
+      </c>
+      <c r="C2">
+        <v>1.0193536628930824</v>
+      </c>
+      <c r="D2">
+        <v>2.3709337576790492</v>
+      </c>
+      <c r="E2">
+        <v>3.6849603592111229</v>
+      </c>
+      <c r="F2">
+        <v>1.2726361189840942</v>
+      </c>
+      <c r="G2">
+        <v>1.1352340377691181</v>
+      </c>
+      <c r="H2">
+        <v>1.0142608498849424</v>
+      </c>
+      <c r="I2">
+        <v>2.3702665990481639</v>
+      </c>
+      <c r="J2">
+        <v>2.5779167844895543</v>
+      </c>
+      <c r="K2">
+        <v>0.75845434256289157</v>
+      </c>
+      <c r="L2">
+        <v>0.66974872822064524</v>
+      </c>
+      <c r="N2">
         <v>1.7052526527940211</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>2.8356242079864398</v>
+      </c>
+      <c r="Q2">
+        <v>8.5075875732570378E-3</v>
+      </c>
+      <c r="V2">
+        <v>1.5306152941622611</v>
+      </c>
+      <c r="W2">
+        <v>-1.519927792181794</v>
+      </c>
+      <c r="X2">
+        <v>6.9551310560222526E-2</v>
+      </c>
+      <c r="AA2">
+        <v>2.6755921960254327</v>
+      </c>
+      <c r="AB2">
+        <v>2.5274474949413679</v>
+      </c>
+      <c r="AC2">
+        <v>-8.4147560890596093E-2</v>
+      </c>
+      <c r="AD2">
+        <v>3.9685652698051257</v>
+      </c>
+      <c r="AE2">
+        <v>1.1831072690604096</v>
+      </c>
+      <c r="AF2">
+        <v>2.2384115175648462</v>
+      </c>
+      <c r="AG2">
+        <v>2.0284693137419496</v>
+      </c>
+      <c r="AH2">
+        <v>2.4433284246807374</v>
+      </c>
+      <c r="AI2">
+        <v>3.3271372181508885</v>
+      </c>
+      <c r="AJ2">
+        <v>1.7708359666182876</v>
+      </c>
+      <c r="AK2">
+        <v>2.1599971965590852</v>
+      </c>
+      <c r="AL2">
+        <v>-0.75857756792891284</v>
+      </c>
+      <c r="AM2">
         <v>2.2283496212090781</v>
       </c>
-      <c r="F2">
-        <v>1.2726361212921207</v>
-      </c>
-      <c r="G2">
-        <v>1.1352340371262351</v>
-      </c>
-      <c r="H2">
-        <v>1.0142608536382558</v>
-      </c>
-      <c r="I2">
-        <v>2.3702665963621286</v>
-      </c>
-      <c r="J2">
-        <v>2.5779167907510634</v>
-      </c>
-      <c r="K2">
-        <v>0.75845434120731814</v>
-      </c>
-      <c r="L2">
-        <v>0.66974873291103976</v>
-      </c>
-      <c r="N2">
-        <v>1.7052526542481898</v>
-      </c>
-      <c r="P2">
-        <v>2.8356242088676313</v>
-      </c>
-      <c r="Q2">
-        <v>8.507594402706509E-3</v>
-      </c>
-      <c r="V2">
-        <v>1.5306153013945789</v>
-      </c>
-      <c r="W2">
-        <v>-1.5199277889440463</v>
-      </c>
-      <c r="X2">
-        <v>6.9551315995546412E-2</v>
-      </c>
-      <c r="AA2">
-        <v>2.6755922032513006</v>
-      </c>
-      <c r="AB2">
-        <v>2.527447508658093</v>
-      </c>
-      <c r="AC2">
-        <v>-8.4147562540553555E-2</v>
-      </c>
-      <c r="AD2">
-        <v>3.9685652846010799</v>
-      </c>
-      <c r="AE2">
-        <v>1.1831072693689477</v>
-      </c>
-      <c r="AF2">
-        <v>2.2384115191412062</v>
-      </c>
-      <c r="AG2">
-        <v>2.0284693196225985</v>
-      </c>
-      <c r="AH2">
-        <v>2.4433284336755432</v>
-      </c>
-      <c r="AI2">
-        <v>3.3271372339962384</v>
-      </c>
-      <c r="AJ2">
-        <v>1.7708359672277427</v>
-      </c>
-      <c r="AK2">
-        <v>2.1599972025978857</v>
-      </c>
-      <c r="AL2">
-        <v>-0.75857756209944527</v>
-      </c>
-      <c r="AM2">
-        <v>2.2283496328932091</v>
-      </c>
       <c r="AO2">
-        <v>4.2672149188645303</v>
+        <v>4.2672149058119757</v>
       </c>
       <c r="AP2">
-        <v>3.2038310392423148</v>
+        <v>3.2038310358413931</v>
       </c>
       <c r="AQ2">
-        <v>-0.86568834446159459</v>
+        <v>-0.86568835424872725</v>
       </c>
       <c r="AR2">
-        <v>4.0527067920925841</v>
+        <v>4.052706793232197</v>
       </c>
       <c r="AS2">
-        <v>3.269086368440874</v>
+        <v>3.2690863572415663</v>
       </c>
       <c r="AU2">
-        <v>1.1067275632344666</v>
+        <v>1.1067275563169912</v>
       </c>
       <c r="AV2">
-        <v>0.53654127931207229</v>
+        <v>0.53654126577232808</v>
       </c>
       <c r="AW2">
-        <v>1.0780557509285236</v>
+        <v>1.0780557417674161</v>
       </c>
       <c r="AX2">
-        <v>3.3793850082209023</v>
+        <v>3.379385001498675</v>
       </c>
       <c r="AY2">
-        <v>4.4768343464716134</v>
+        <v>4.4768343351225006</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -632,121 +638,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.0884115699966748</v>
+      </c>
+      <c r="C3">
+        <v>0.97885949015811324</v>
+      </c>
+      <c r="E3">
+        <v>4.2519849285721252</v>
+      </c>
+      <c r="F3">
+        <v>1.0390327369178058</v>
+      </c>
+      <c r="G3">
+        <v>2.3905357625272714</v>
+      </c>
+      <c r="H3">
+        <v>-0.63941835491547483</v>
+      </c>
+      <c r="J3">
+        <v>3.1430657724128106</v>
+      </c>
+      <c r="K3">
+        <v>4.0899452834831864</v>
+      </c>
+      <c r="L3">
+        <v>2.7574427734244971</v>
+      </c>
+      <c r="M3">
+        <v>-0.80016216086013414</v>
+      </c>
+      <c r="N3">
         <v>1.540892365117235</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>2.6920675497946767</v>
+      </c>
+      <c r="Q3">
+        <v>0.98572374147481767</v>
+      </c>
+      <c r="R3">
+        <v>0.11022866506253015</v>
+      </c>
+      <c r="W3">
+        <v>0.10846793998883876</v>
+      </c>
+      <c r="AA3">
+        <v>2.9148819876379299</v>
+      </c>
+      <c r="AB3">
+        <v>2.5561784357193162</v>
+      </c>
+      <c r="AC3">
+        <v>3.8495423699594</v>
+      </c>
+      <c r="AD3">
+        <v>4.0450882257165288</v>
+      </c>
+      <c r="AE3">
+        <v>2.5848838809717116</v>
+      </c>
+      <c r="AF3">
+        <v>2.3505744194357523</v>
+      </c>
+      <c r="AG3">
+        <v>1.0170190475564882</v>
+      </c>
+      <c r="AH3">
+        <v>0.65634827278967345</v>
+      </c>
+      <c r="AI3">
+        <v>2.7160646422346715</v>
+      </c>
+      <c r="AJ3">
+        <v>3.5673269017148921</v>
+      </c>
+      <c r="AK3">
+        <v>2.4578554932140033</v>
+      </c>
+      <c r="AL3">
+        <v>1.8544400940577441</v>
+      </c>
+      <c r="AM3">
         <v>1.9469526140131026</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>-1.7914419616663402</v>
       </c>
-      <c r="F3">
-        <v>1.0390327413452414</v>
-      </c>
-      <c r="G3">
-        <v>2.3905357669692582</v>
-      </c>
-      <c r="H3">
-        <v>-0.63941835282717918</v>
-      </c>
-      <c r="J3">
-        <v>3.1430657848577042</v>
-      </c>
-      <c r="K3">
-        <v>4.0899452876872129</v>
-      </c>
-      <c r="L3">
-        <v>2.7574427823073817</v>
-      </c>
-      <c r="M3">
-        <v>-0.80018159969947977</v>
-      </c>
-      <c r="N3">
-        <v>1.5408923709113176</v>
-      </c>
-      <c r="P3">
-        <v>2.6920675624899792</v>
-      </c>
-      <c r="Q3">
-        <v>0.98572374676671115</v>
-      </c>
-      <c r="R3">
-        <v>0.11022867683889148</v>
-      </c>
-      <c r="W3">
-        <v>0.10846795013486062</v>
-      </c>
-      <c r="AA3">
-        <v>2.9148819963160557</v>
-      </c>
-      <c r="AB3">
-        <v>2.5561784442021964</v>
-      </c>
-      <c r="AC3">
-        <v>3.8495423726330107</v>
-      </c>
-      <c r="AD3">
-        <v>4.0450882312423744</v>
-      </c>
-      <c r="AE3">
-        <v>2.5848838832166545</v>
-      </c>
-      <c r="AF3">
-        <v>2.3505744257305428</v>
-      </c>
-      <c r="AG3">
-        <v>1.0170190554479759</v>
-      </c>
-      <c r="AH3">
-        <v>0.65634828204657469</v>
-      </c>
-      <c r="AI3">
-        <v>2.7160646555168944</v>
-      </c>
-      <c r="AJ3">
-        <v>3.5673269097768876</v>
-      </c>
-      <c r="AK3">
-        <v>2.4578554990592862</v>
-      </c>
-      <c r="AL3">
-        <v>1.8544401051638677</v>
-      </c>
-      <c r="AM3">
-        <v>1.9469526283850631</v>
-      </c>
-      <c r="AN3">
-        <v>-1.7914419546254758</v>
-      </c>
       <c r="AO3">
-        <v>3.9321977966773671</v>
+        <v>3.9321977901794551</v>
       </c>
       <c r="AP3">
-        <v>0.6404949194824523</v>
+        <v>0.64049491306849815</v>
       </c>
       <c r="AQ3">
-        <v>2.0033802758284871</v>
+        <v>2.0033802731607646</v>
       </c>
       <c r="AS3">
-        <v>2.70541226036823</v>
+        <v>2.7054122578463891</v>
       </c>
       <c r="AT3">
-        <v>2.6935110565513556</v>
+        <v>2.6935110470555328</v>
       </c>
       <c r="AU3">
-        <v>1.5585846859164461</v>
+        <v>1.5585846807389752</v>
       </c>
       <c r="AV3">
-        <v>0.56850383243144409</v>
+        <v>0.56850382598819282</v>
       </c>
       <c r="AW3">
-        <v>0.41159393304974767</v>
+        <v>0.41159392571628167</v>
       </c>
       <c r="AX3">
-        <v>2.1094734132230322</v>
+        <v>2.1094734044079444</v>
       </c>
       <c r="AY3">
-        <v>5.403788483430902</v>
+        <v>5.4037884723696354</v>
       </c>
     </row>
   </sheetData>
